--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4004619.989747104</v>
+        <v>4002367.910035897</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7740905403541</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>16.32241046607077</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>73.1120650638731</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7098141956742</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>120.774090540354</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>384.6677347133221</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>69.9176400685913</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>11.03304066191151</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6171786497995</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>129.9950902990151</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>203.1977700471489</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.3975590884503</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1427,13 +1427,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417132</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833815</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>34.56584948763671</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>52.10645541514072</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
         <v>123.9815576456779</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796279</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796279</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796279</v>
+        <v>950.1045973369969</v>
       </c>
       <c r="E2" t="n">
-        <v>535.9822032813836</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>124.996298491776</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.37029594375</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686078</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.927635901259</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.927635901259</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.927635901259</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.927635901259</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.938085003241</v>
+        <v>662.3355349543779</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1979.067756754391</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="C5" t="n">
-        <v>1610.10523981398</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.839541207229</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E5" t="n">
-        <v>866.051288608985</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>455.0653838193775</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.667596818513</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1015.34761180106</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>846.4114288731531</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>696.2947894608174</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>548.3816958784242</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1123.764238850934</v>
       </c>
       <c r="W7" t="n">
-        <v>1645.778206672847</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.78865577483</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y7" t="n">
-        <v>1196.9960766313</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>968.8505838746323</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>679.4334138376717</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>458.6408346941415</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5042,34 +5042,34 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5081,10 +5081,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,55 +5984,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,16 +6124,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797186</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,7 +6835,7 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
         <v>388.6197041282753</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,34 +6935,34 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,7 +7418,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-8.065157317493785e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.40333084624521</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864873</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823102</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24373,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>184.0188038644581</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.2652634529499</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>32.15184655856257</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>617558.8290677507</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>617558.8290677507</v>
+        <v>617558.8290677508</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642833</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642832</v>
-      </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
@@ -26329,22 +26329,22 @@
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
         <v>807146.5996900059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900061</v>
@@ -26353,7 +26353,7 @@
         <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900065</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.28238008105184e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181816</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="F4" t="n">
         <v>12996.86414683036</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>12996.86414683046</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683045</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683047</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707820.8153428852</v>
+        <v>-707820.8153428844</v>
       </c>
       <c r="C6" t="n">
-        <v>620923.9303847088</v>
+        <v>620923.9303847085</v>
       </c>
       <c r="D6" t="n">
-        <v>620923.9303847085</v>
+        <v>620923.930384708</v>
       </c>
       <c r="E6" t="n">
-        <v>367614.743911913</v>
+        <v>367580.0059864774</v>
       </c>
       <c r="F6" t="n">
-        <v>693027.2057192688</v>
+        <v>692992.4677938328</v>
       </c>
       <c r="G6" t="n">
-        <v>693027.2057192686</v>
+        <v>692992.4677938333</v>
       </c>
       <c r="H6" t="n">
-        <v>693027.2057192686</v>
+        <v>692992.4677938331</v>
       </c>
       <c r="I6" t="n">
-        <v>693027.2057192685</v>
+        <v>692992.467793833</v>
       </c>
       <c r="J6" t="n">
-        <v>475496.0033219907</v>
+        <v>475461.2653965553</v>
       </c>
       <c r="K6" t="n">
-        <v>693027.2057192685</v>
+        <v>692992.467793833</v>
       </c>
       <c r="L6" t="n">
-        <v>693027.2057192688</v>
+        <v>692992.4677938332</v>
       </c>
       <c r="M6" t="n">
-        <v>607972.1777837567</v>
+        <v>607937.4398583208</v>
       </c>
       <c r="N6" t="n">
-        <v>693027.2057192686</v>
+        <v>692992.467793833</v>
       </c>
       <c r="O6" t="n">
-        <v>693027.2057192689</v>
+        <v>692992.4677938332</v>
       </c>
       <c r="P6" t="n">
-        <v>693027.2057192686</v>
+        <v>692992.4677938333</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.1562795319077</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>394.5993151873827</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>146.4368842122961</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.999841193362926</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>261.9597511231266</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>26.25399094013136</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>75.50340795433995</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>241.1046026619165</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.3131914224623</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>239.7360103794539</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>16.35117922902029</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>87.74008423537771</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28141,19 +28141,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,13 +31844,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>469.5567819573404</v>
       </c>
       <c r="N12" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104064</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,13 +33415,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34214,16 +34214,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353221</v>
       </c>
       <c r="N12" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789214</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707313</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,13 +37063,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
